--- a/Tables/2_2_2_non_normal_vars_u_tests.xlsx
+++ b/Tables/2_2_2_non_normal_vars_u_tests.xlsx
@@ -629,7 +629,7 @@
         <v>0.6132621323951537</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="5">
@@ -675,7 +675,7 @@
         <v>87.5</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5458141958541369</v>
+        <v>0.545814195854137</v>
       </c>
       <c r="K5" t="n">
         <v>0.8606607971663043</v>
@@ -1214,10 +1214,10 @@
         <v>562</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0003704790968120981</v>
+        <v>0.000370479096812098</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02374108280514059</v>
+        <v>0.0237410828051406</v>
       </c>
     </row>
     <row r="17">
@@ -1361,7 +1361,7 @@
         <v>1148</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1961976629126613</v>
+        <v>0.1961976629126612</v>
       </c>
       <c r="K19" t="n">
         <v>0.6568669547046578</v>
@@ -1658,7 +1658,7 @@
         <v>0.6299958043619696</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="26">
@@ -1704,7 +1704,7 @@
         <v>860</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3198883406120825</v>
+        <v>0.3198883406120826</v>
       </c>
       <c r="K26" t="n">
         <v>0.7571006038763933</v>
@@ -1805,7 +1805,7 @@
         <v>0.6165332074305394</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="29">
@@ -1903,7 +1903,7 @@
         <v>0.1011101962060393</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5226541982988798</v>
+        <v>0.5226541982988799</v>
       </c>
     </row>
     <row r="31">
@@ -2148,7 +2148,7 @@
         <v>0.3344698955175947</v>
       </c>
       <c r="K35" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="36">
@@ -2393,7 +2393,7 @@
         <v>0.014937030894599</v>
       </c>
       <c r="K40" t="n">
-        <v>0.211709715351586</v>
+        <v>0.2117097153515859</v>
       </c>
     </row>
     <row r="41">
@@ -2687,7 +2687,7 @@
         <v>0.6080690374428921</v>
       </c>
       <c r="K46" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="47">
@@ -2831,7 +2831,7 @@
         <v>652</v>
       </c>
       <c r="J49" t="n">
-        <v>0.282535109363958</v>
+        <v>0.2825351093639579</v>
       </c>
       <c r="K49" t="n">
         <v>0.7292139503513539</v>
@@ -2929,7 +2929,7 @@
         <v>1045</v>
       </c>
       <c r="J51" t="n">
-        <v>0.03394751634069484</v>
+        <v>0.03394751634069485</v>
       </c>
       <c r="K51" t="n">
         <v>0.3260681329148261</v>
@@ -3030,7 +3030,7 @@
         <v>0.1877582457765807</v>
       </c>
       <c r="K53" t="n">
-        <v>0.6520450065508591</v>
+        <v>0.6520450065508587</v>
       </c>
     </row>
     <row r="54">
@@ -3128,7 +3128,7 @@
         <v>0.1636939451153259</v>
       </c>
       <c r="K55" t="n">
-        <v>0.6402761086638168</v>
+        <v>0.6402761086638172</v>
       </c>
     </row>
     <row r="56">
@@ -3226,7 +3226,7 @@
         <v>0.6076980421698234</v>
       </c>
       <c r="K57" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="58">
@@ -3422,7 +3422,7 @@
         <v>0.342480134571866</v>
       </c>
       <c r="K61" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="62">
@@ -3912,7 +3912,7 @@
         <v>0.3063401250154812</v>
       </c>
       <c r="K71" t="n">
-        <v>0.7450442509245141</v>
+        <v>0.7450442509245144</v>
       </c>
     </row>
     <row r="72">
@@ -4010,7 +4010,7 @@
         <v>0.03993889916208426</v>
       </c>
       <c r="K73" t="n">
-        <v>0.3319591573681298</v>
+        <v>0.3319591573681299</v>
       </c>
     </row>
     <row r="74">
@@ -4203,7 +4203,7 @@
         <v>903.5</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1980206058148506</v>
+        <v>0.1980206058148505</v>
       </c>
       <c r="K77" t="n">
         <v>0.6568669547046578</v>
@@ -4255,7 +4255,7 @@
         <v>0.3503432108863264</v>
       </c>
       <c r="K78" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="79">
@@ -4500,7 +4500,7 @@
         <v>0.1385530354234706</v>
       </c>
       <c r="K83" t="n">
-        <v>0.5936818233422018</v>
+        <v>0.593681823342202</v>
       </c>
     </row>
     <row r="84">
@@ -4647,7 +4647,7 @@
         <v>0.6422428528112489</v>
       </c>
       <c r="K86" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="87">
@@ -4745,7 +4745,7 @@
         <v>0.03875725386033608</v>
       </c>
       <c r="K88" t="n">
-        <v>0.3319591573681298</v>
+        <v>0.3319591573681299</v>
       </c>
     </row>
     <row r="89">
@@ -4889,7 +4889,7 @@
         <v>606</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02338464724868275</v>
+        <v>0.02338464724868276</v>
       </c>
       <c r="K91" t="n">
         <v>0.2641511022668969</v>
@@ -5039,7 +5039,7 @@
         <v>0.001271463868230702</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04707970575728141</v>
+        <v>0.04707970575728139</v>
       </c>
     </row>
     <row r="95">
@@ -5137,7 +5137,7 @@
         <v>0.3414044761089134</v>
       </c>
       <c r="K96" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="97">
@@ -5281,7 +5281,7 @@
         <v>1090</v>
       </c>
       <c r="J99" t="n">
-        <v>0.4142102843820108</v>
+        <v>0.4142102843820109</v>
       </c>
       <c r="K99" t="n">
         <v>0.8036928119513357</v>
@@ -5333,7 +5333,7 @@
         <v>0.3432289991432971</v>
       </c>
       <c r="K100" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="101">
@@ -5480,7 +5480,7 @@
         <v>0.3069421450118213</v>
       </c>
       <c r="K103" t="n">
-        <v>0.7450442509245141</v>
+        <v>0.7450442509245144</v>
       </c>
     </row>
     <row r="104">
@@ -5673,10 +5673,10 @@
         <v>971.5</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0349074480085295</v>
+        <v>0.03490744800852952</v>
       </c>
       <c r="K107" t="n">
-        <v>0.3280478058014616</v>
+        <v>0.3280478058014617</v>
       </c>
     </row>
     <row r="108">
@@ -5771,10 +5771,10 @@
         <v>665.5</v>
       </c>
       <c r="J109" t="n">
-        <v>0.2566798190605888</v>
+        <v>0.2566798190605889</v>
       </c>
       <c r="K109" t="n">
-        <v>0.7091823755894388</v>
+        <v>0.7091823755894384</v>
       </c>
     </row>
     <row r="110">
@@ -5869,10 +5869,10 @@
         <v>929</v>
       </c>
       <c r="J111" t="n">
-        <v>0.2874803021014625</v>
+        <v>0.2874803021014624</v>
       </c>
       <c r="K111" t="n">
-        <v>0.7302983713531039</v>
+        <v>0.7302983713531036</v>
       </c>
     </row>
     <row r="112">
@@ -5918,10 +5918,10 @@
         <v>1236</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04367370380167742</v>
+        <v>0.04367370380167741</v>
       </c>
       <c r="K112" t="n">
-        <v>0.3319591573681298</v>
+        <v>0.3319591573681299</v>
       </c>
     </row>
     <row r="113">
@@ -6019,7 +6019,7 @@
         <v>0.1235393086706389</v>
       </c>
       <c r="K114" t="n">
-        <v>0.5567846494413846</v>
+        <v>0.5567846494413845</v>
       </c>
     </row>
     <row r="115">
@@ -6114,10 +6114,10 @@
         <v>748</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04750465211768754</v>
+        <v>0.04750465211768755</v>
       </c>
       <c r="K116" t="n">
-        <v>0.349218480601122</v>
+        <v>0.3492184806011221</v>
       </c>
     </row>
     <row r="117">
@@ -6166,7 +6166,7 @@
         <v>0.01601865751068338</v>
       </c>
       <c r="K117" t="n">
-        <v>0.213376732738462</v>
+        <v>0.2133767327384619</v>
       </c>
     </row>
     <row r="118">
@@ -6261,10 +6261,10 @@
         <v>816.5</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1541265024862837</v>
+        <v>0.1541265024862836</v>
       </c>
       <c r="K119" t="n">
-        <v>0.6206877367567779</v>
+        <v>0.6206877367567778</v>
       </c>
     </row>
     <row r="120">
@@ -6313,7 +6313,7 @@
         <v>0.04225402065442223</v>
       </c>
       <c r="K120" t="n">
-        <v>0.3319591573681298</v>
+        <v>0.3319591573681299</v>
       </c>
     </row>
     <row r="121">
@@ -6408,7 +6408,7 @@
         <v>644</v>
       </c>
       <c r="J122" t="n">
-        <v>0.2482480424904144</v>
+        <v>0.2482480424904145</v>
       </c>
       <c r="K122" t="n">
         <v>0.6929404609736429</v>
@@ -6656,7 +6656,7 @@
         <v>0.1218994837047632</v>
       </c>
       <c r="K127" t="n">
-        <v>0.5554980858300392</v>
+        <v>0.5554980858300391</v>
       </c>
     </row>
     <row r="128">
@@ -6950,7 +6950,7 @@
         <v>0.0004112988358927148</v>
       </c>
       <c r="K133" t="n">
-        <v>0.02374108280514059</v>
+        <v>0.0237410828051406</v>
       </c>
     </row>
     <row r="134">
@@ -7241,10 +7241,10 @@
         <v>657</v>
       </c>
       <c r="J139" t="n">
-        <v>0.2161504067726016</v>
+        <v>0.2161504067726017</v>
       </c>
       <c r="K139" t="n">
-        <v>0.6686748101232944</v>
+        <v>0.6686748101232951</v>
       </c>
     </row>
     <row r="140">
@@ -7342,7 +7342,7 @@
         <v>0.6316510903376999</v>
       </c>
       <c r="K141" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="142">
@@ -7538,7 +7538,7 @@
         <v>0.04728545907871302</v>
       </c>
       <c r="K145" t="n">
-        <v>0.349218480601122</v>
+        <v>0.3492184806011221</v>
       </c>
     </row>
     <row r="146">
@@ -7731,10 +7731,10 @@
         <v>727.5</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03134784331629926</v>
+        <v>0.03134784331629928</v>
       </c>
       <c r="K149" t="n">
-        <v>0.3072680113739145</v>
+        <v>0.3072680113739146</v>
       </c>
     </row>
     <row r="150">
@@ -7881,7 +7881,7 @@
         <v>0.0009850965874893696</v>
       </c>
       <c r="K152" t="n">
-        <v>0.04662119424668051</v>
+        <v>0.04662119424668053</v>
       </c>
     </row>
     <row r="153">
@@ -7927,10 +7927,10 @@
         <v>557</v>
       </c>
       <c r="J153" t="n">
-        <v>0.0003864944874267364</v>
+        <v>0.0003864944874267365</v>
       </c>
       <c r="K153" t="n">
-        <v>0.02374108280514059</v>
+        <v>0.0237410828051406</v>
       </c>
     </row>
     <row r="154">
@@ -8074,10 +8074,10 @@
         <v>666</v>
       </c>
       <c r="J156" t="n">
-        <v>0.2592228861198602</v>
+        <v>0.2592228861198603</v>
       </c>
       <c r="K156" t="n">
-        <v>0.7091823755894388</v>
+        <v>0.7091823755894384</v>
       </c>
     </row>
     <row r="157">
@@ -8123,10 +8123,10 @@
         <v>647</v>
       </c>
       <c r="J157" t="n">
-        <v>0.260738852237888</v>
+        <v>0.2607388522378878</v>
       </c>
       <c r="K157" t="n">
-        <v>0.7091823755894388</v>
+        <v>0.7091823755894384</v>
       </c>
     </row>
     <row r="158">
@@ -8319,10 +8319,10 @@
         <v>1205</v>
       </c>
       <c r="J161" t="n">
-        <v>0.07836741269032746</v>
+        <v>0.07836741269032747</v>
       </c>
       <c r="K161" t="n">
-        <v>0.4523541210291679</v>
+        <v>0.452354121029168</v>
       </c>
     </row>
     <row r="162">
@@ -8417,10 +8417,10 @@
         <v>770</v>
       </c>
       <c r="J163" t="n">
-        <v>0.07139835571119384</v>
+        <v>0.07139835571119382</v>
       </c>
       <c r="K163" t="n">
-        <v>0.4263384573789104</v>
+        <v>0.4263384573789102</v>
       </c>
     </row>
     <row r="164">
@@ -8518,7 +8518,7 @@
         <v>0.03513083540715253</v>
       </c>
       <c r="K165" t="n">
-        <v>0.3280478058014616</v>
+        <v>0.3280478058014617</v>
       </c>
     </row>
     <row r="166">
@@ -8567,7 +8567,7 @@
         <v>0.3374091528542194</v>
       </c>
       <c r="K166" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="167">
@@ -8662,10 +8662,10 @@
         <v>769</v>
       </c>
       <c r="J168" t="n">
-        <v>0.07011775000484508</v>
+        <v>0.07011775000484505</v>
       </c>
       <c r="K168" t="n">
-        <v>0.4235601293897328</v>
+        <v>0.4235601293897326</v>
       </c>
     </row>
     <row r="169">
@@ -8858,10 +8858,10 @@
         <v>924</v>
       </c>
       <c r="J172" t="n">
-        <v>0.08558729403564187</v>
+        <v>0.08558729403564189</v>
       </c>
       <c r="K172" t="n">
-        <v>0.4730063750161271</v>
+        <v>0.4730063750161272</v>
       </c>
     </row>
     <row r="173">
@@ -8910,7 +8910,7 @@
         <v>0.1129052367118684</v>
       </c>
       <c r="K173" t="n">
-        <v>0.5481707520730434</v>
+        <v>0.5481707520730432</v>
       </c>
     </row>
     <row r="174">
@@ -9302,7 +9302,7 @@
         <v>0.3435214090513867</v>
       </c>
       <c r="K181" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="182">
@@ -9547,7 +9547,7 @@
         <v>0.6362531602051578</v>
       </c>
       <c r="K186" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="187">
@@ -9593,10 +9593,10 @@
         <v>1285.5</v>
       </c>
       <c r="J187" t="n">
-        <v>0.01548598495353276</v>
+        <v>0.01548598495353275</v>
       </c>
       <c r="K187" t="n">
-        <v>0.211709715351586</v>
+        <v>0.2117097153515859</v>
       </c>
     </row>
     <row r="188">
@@ -9691,10 +9691,10 @@
         <v>1231</v>
       </c>
       <c r="J189" t="n">
-        <v>0.04807757393140161</v>
+        <v>0.0480775739314016</v>
       </c>
       <c r="K189" t="n">
-        <v>0.349218480601122</v>
+        <v>0.3492184806011221</v>
       </c>
     </row>
     <row r="190">
@@ -9740,10 +9740,10 @@
         <v>884</v>
       </c>
       <c r="J190" t="n">
-        <v>0.3860479751021495</v>
+        <v>0.3860479751021494</v>
       </c>
       <c r="K190" t="n">
-        <v>0.7880232733421088</v>
+        <v>0.7880232733421085</v>
       </c>
     </row>
     <row r="191">
@@ -9838,10 +9838,10 @@
         <v>769.5</v>
       </c>
       <c r="J192" t="n">
-        <v>0.07067639267527071</v>
+        <v>0.07067639267527069</v>
       </c>
       <c r="K192" t="n">
-        <v>0.424466890113331</v>
+        <v>0.4244668901133309</v>
       </c>
     </row>
     <row r="193">
@@ -9887,10 +9887,10 @@
         <v>779</v>
       </c>
       <c r="J193" t="n">
-        <v>0.08409873594658025</v>
+        <v>0.08409873594658028</v>
       </c>
       <c r="K193" t="n">
-        <v>0.4697773475725638</v>
+        <v>0.469777347572564</v>
       </c>
     </row>
     <row r="194">
@@ -10083,10 +10083,10 @@
         <v>821</v>
       </c>
       <c r="J197" t="n">
-        <v>0.16674836016678</v>
+        <v>0.1667483601667799</v>
       </c>
       <c r="K197" t="n">
-        <v>0.6402761086638168</v>
+        <v>0.6402761086638172</v>
       </c>
     </row>
     <row r="198">
@@ -10181,10 +10181,10 @@
         <v>567.5</v>
       </c>
       <c r="J199" t="n">
-        <v>0.05493721426187521</v>
+        <v>0.05493721426187519</v>
       </c>
       <c r="K199" t="n">
-        <v>0.3682565523747635</v>
+        <v>0.3682565523747633</v>
       </c>
     </row>
     <row r="200">
@@ -10573,7 +10573,7 @@
         <v>1275</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01956144291579436</v>
+        <v>0.01956144291579437</v>
       </c>
       <c r="K207" t="n">
         <v>0.2398644326020371</v>
@@ -10723,7 +10723,7 @@
         <v>0.2163931608348952</v>
       </c>
       <c r="K210" t="n">
-        <v>0.6686748101232944</v>
+        <v>0.6686748101232951</v>
       </c>
     </row>
     <row r="211">
@@ -10772,7 +10772,7 @@
         <v>0.6195635440720579</v>
       </c>
       <c r="K211" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="212">
@@ -10968,7 +10968,7 @@
         <v>0.6311869945505311</v>
       </c>
       <c r="K215" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="216">
@@ -11066,7 +11066,7 @@
         <v>0.6420339841498567</v>
       </c>
       <c r="K217" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="218">
@@ -11164,7 +11164,7 @@
         <v>0.3435214090513867</v>
       </c>
       <c r="K219" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="220">
@@ -11311,7 +11311,7 @@
         <v>0.3078994529010944</v>
       </c>
       <c r="K222" t="n">
-        <v>0.7450442509245141</v>
+        <v>0.7450442509245144</v>
       </c>
     </row>
     <row r="223">
@@ -11700,10 +11700,10 @@
         <v>840</v>
       </c>
       <c r="J230" t="n">
-        <v>0.2194592013975394</v>
+        <v>0.2194592013975396</v>
       </c>
       <c r="K230" t="n">
-        <v>0.6686748101232944</v>
+        <v>0.6686748101232951</v>
       </c>
     </row>
     <row r="231">
@@ -11945,10 +11945,10 @@
         <v>768</v>
       </c>
       <c r="J235" t="n">
-        <v>0.06880519550788271</v>
+        <v>0.06880519550788269</v>
       </c>
       <c r="K235" t="n">
-        <v>0.4205211654864125</v>
+        <v>0.4205211654864124</v>
       </c>
     </row>
     <row r="236">
@@ -12046,7 +12046,7 @@
         <v>0.3474236069793722</v>
       </c>
       <c r="K237" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="238">
@@ -12291,7 +12291,7 @@
         <v>0.3076718889673633</v>
       </c>
       <c r="K242" t="n">
-        <v>0.7450442509245141</v>
+        <v>0.7450442509245144</v>
       </c>
     </row>
     <row r="243">
@@ -12389,7 +12389,7 @@
         <v>0.5815284815528328</v>
       </c>
       <c r="K244" t="n">
-        <v>0.8669768776427637</v>
+        <v>0.8669768776427638</v>
       </c>
     </row>
     <row r="245">
@@ -12487,7 +12487,7 @@
         <v>0.1101358349927921</v>
       </c>
       <c r="K246" t="n">
-        <v>0.5397694931958068</v>
+        <v>0.5397694931958066</v>
       </c>
     </row>
     <row r="247">
@@ -12631,7 +12631,7 @@
         <v>784</v>
       </c>
       <c r="J249" t="n">
-        <v>0.09133810649303144</v>
+        <v>0.09133810649303145</v>
       </c>
       <c r="K249" t="n">
         <v>0.4891767662178333</v>
@@ -12879,7 +12879,7 @@
         <v>0.3497039275126754</v>
       </c>
       <c r="K254" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="255">
@@ -12977,7 +12977,7 @@
         <v>0.6242428488782605</v>
       </c>
       <c r="K256" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="257">
@@ -13072,7 +13072,7 @@
         <v>627.5</v>
       </c>
       <c r="J258" t="n">
-        <v>0.106480333347286</v>
+        <v>0.1064803333472859</v>
       </c>
       <c r="K258" t="n">
         <v>0.5323170055090398</v>
@@ -13173,7 +13173,7 @@
         <v>0.1218994837047632</v>
       </c>
       <c r="K260" t="n">
-        <v>0.5554980858300392</v>
+        <v>0.5554980858300391</v>
       </c>
     </row>
     <row r="261">
@@ -13219,7 +13219,7 @@
         <v>1066</v>
       </c>
       <c r="J261" t="n">
-        <v>0.5350166401300576</v>
+        <v>0.5350166401300575</v>
       </c>
       <c r="K261" t="n">
         <v>0.8584223890956794</v>
@@ -13516,7 +13516,7 @@
         <v>0.0576702752690148</v>
       </c>
       <c r="K267" t="n">
-        <v>0.3792368101551036</v>
+        <v>0.3792368101551037</v>
       </c>
     </row>
     <row r="268">
@@ -13712,7 +13712,7 @@
         <v>0.6400195831119321</v>
       </c>
       <c r="K271" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="272">
@@ -13905,10 +13905,10 @@
         <v>872.5</v>
       </c>
       <c r="J275" t="n">
-        <v>0.0153868600115447</v>
+        <v>0.01538686001154469</v>
       </c>
       <c r="K275" t="n">
-        <v>0.211709715351586</v>
+        <v>0.2117097153515859</v>
       </c>
     </row>
     <row r="276">
@@ -13954,7 +13954,7 @@
         <v>654</v>
       </c>
       <c r="J276" t="n">
-        <v>0.2030076325397052</v>
+        <v>0.2030076325397053</v>
       </c>
       <c r="K276" t="n">
         <v>0.6568669547046578</v>
@@ -14104,7 +14104,7 @@
         <v>0.167081736662586</v>
       </c>
       <c r="K279" t="n">
-        <v>0.6402761086638168</v>
+        <v>0.6402761086638172</v>
       </c>
     </row>
     <row r="280">
@@ -14493,10 +14493,10 @@
         <v>767.5</v>
       </c>
       <c r="J287" t="n">
-        <v>0.06795812684070708</v>
+        <v>0.06795812684070707</v>
       </c>
       <c r="K287" t="n">
-        <v>0.4178017383875424</v>
+        <v>0.4178017383875423</v>
       </c>
     </row>
     <row r="288">
@@ -14937,7 +14937,7 @@
         <v>0.3432612569793644</v>
       </c>
       <c r="K296" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="297">
@@ -15084,7 +15084,7 @@
         <v>0.621238017799165</v>
       </c>
       <c r="K299" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="300">
@@ -15182,7 +15182,7 @@
         <v>0.6220363412205443</v>
       </c>
       <c r="K301" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="302">
@@ -15231,7 +15231,7 @@
         <v>0.6336938700801933</v>
       </c>
       <c r="K302" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="303">
@@ -15277,10 +15277,10 @@
         <v>1288</v>
       </c>
       <c r="J303" t="n">
-        <v>0.01463390141262684</v>
+        <v>0.01463390141262683</v>
       </c>
       <c r="K303" t="n">
-        <v>0.211709715351586</v>
+        <v>0.2117097153515859</v>
       </c>
     </row>
     <row r="304">
@@ -15571,10 +15571,10 @@
         <v>482</v>
       </c>
       <c r="J309" t="n">
-        <v>0.06628879342238836</v>
+        <v>0.06628879342238839</v>
       </c>
       <c r="K309" t="n">
-        <v>0.4144889591363536</v>
+        <v>0.4144889591363537</v>
       </c>
     </row>
     <row r="310">
@@ -15623,7 +15623,7 @@
         <v>0.1241658046992975</v>
       </c>
       <c r="K310" t="n">
-        <v>0.5567846494413846</v>
+        <v>0.5567846494413845</v>
       </c>
     </row>
     <row r="311">
@@ -16015,7 +16015,7 @@
         <v>0.3469696591649808</v>
       </c>
       <c r="K318" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="319">
@@ -16796,7 +16796,7 @@
         <v>705.5</v>
       </c>
       <c r="J334" t="n">
-        <v>0.199144753594537</v>
+        <v>0.1991447535945371</v>
       </c>
       <c r="K334" t="n">
         <v>0.6568669547046578</v>
@@ -16897,7 +16897,7 @@
         <v>0.6207892070944501</v>
       </c>
       <c r="K336" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="337">
@@ -16995,7 +16995,7 @@
         <v>0.6340827806929696</v>
       </c>
       <c r="K338" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="339">
@@ -17433,10 +17433,10 @@
         <v>848</v>
       </c>
       <c r="J347" t="n">
-        <v>0.2450224809019165</v>
+        <v>0.2450224809019166</v>
       </c>
       <c r="K347" t="n">
-        <v>0.6917890153725306</v>
+        <v>0.6917890153725308</v>
       </c>
     </row>
     <row r="348">
@@ -17485,7 +17485,7 @@
         <v>0.6157440003739159</v>
       </c>
       <c r="K348" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="349">
@@ -17531,10 +17531,10 @@
         <v>867</v>
       </c>
       <c r="J349" t="n">
-        <v>0.2869694768718113</v>
+        <v>0.2869694768718112</v>
       </c>
       <c r="K349" t="n">
-        <v>0.7302983713531039</v>
+        <v>0.7302983713531036</v>
       </c>
     </row>
     <row r="350">
@@ -17580,7 +17580,7 @@
         <v>654</v>
       </c>
       <c r="J350" t="n">
-        <v>0.2741366452294928</v>
+        <v>0.2741366452294927</v>
       </c>
       <c r="K350" t="n">
         <v>0.7244686079543815</v>
@@ -17681,7 +17681,7 @@
         <v>0.1886068728124821</v>
       </c>
       <c r="K352" t="n">
-        <v>0.6520450065508591</v>
+        <v>0.6520450065508587</v>
       </c>
     </row>
     <row r="353">
@@ -17828,7 +17828,7 @@
         <v>0.629958100277682</v>
       </c>
       <c r="K355" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="356">
@@ -17972,7 +17972,7 @@
         <v>934.5</v>
       </c>
       <c r="J358" t="n">
-        <v>0.2815183404977687</v>
+        <v>0.2815183404977688</v>
       </c>
       <c r="K358" t="n">
         <v>0.7292139503513539</v>
@@ -18220,7 +18220,7 @@
         <v>0.6410071557211341</v>
       </c>
       <c r="K363" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="364">
@@ -18465,7 +18465,7 @@
         <v>0.6159353659706099</v>
       </c>
       <c r="K368" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="369">
@@ -18612,7 +18612,7 @@
         <v>0.6370333483848003</v>
       </c>
       <c r="K371" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="372">
@@ -18661,7 +18661,7 @@
         <v>0.1363802156357892</v>
       </c>
       <c r="K372" t="n">
-        <v>0.5904126835232707</v>
+        <v>0.5904126835232708</v>
       </c>
     </row>
     <row r="373">
@@ -18707,10 +18707,10 @@
         <v>739</v>
       </c>
       <c r="J373" t="n">
-        <v>0.03826980568101185</v>
+        <v>0.03826980568101183</v>
       </c>
       <c r="K373" t="n">
-        <v>0.3319591573681298</v>
+        <v>0.3319591573681299</v>
       </c>
     </row>
     <row r="374">
@@ -18756,10 +18756,10 @@
         <v>743</v>
       </c>
       <c r="J374" t="n">
-        <v>0.04309341051419697</v>
+        <v>0.04309341051419698</v>
       </c>
       <c r="K374" t="n">
-        <v>0.3319591573681298</v>
+        <v>0.3319591573681299</v>
       </c>
     </row>
     <row r="375">
@@ -18808,7 +18808,7 @@
         <v>0.2159638680007941</v>
       </c>
       <c r="K375" t="n">
-        <v>0.6686748101232944</v>
+        <v>0.6686748101232951</v>
       </c>
     </row>
     <row r="376">
@@ -18906,7 +18906,7 @@
         <v>0.6311869945505311</v>
       </c>
       <c r="K377" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="378">
@@ -18955,7 +18955,7 @@
         <v>0.6237909830371983</v>
       </c>
       <c r="K378" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="379">
@@ -19001,10 +19001,10 @@
         <v>559</v>
       </c>
       <c r="J379" t="n">
-        <v>0.04399792333370203</v>
+        <v>0.04399792333370205</v>
       </c>
       <c r="K379" t="n">
-        <v>0.3319591573681298</v>
+        <v>0.3319591573681299</v>
       </c>
     </row>
     <row r="380">
@@ -19295,10 +19295,10 @@
         <v>571.5</v>
       </c>
       <c r="J385" t="n">
-        <v>0.03952276890748483</v>
+        <v>0.03952276890748484</v>
       </c>
       <c r="K385" t="n">
-        <v>0.3319591573681298</v>
+        <v>0.3319591573681299</v>
       </c>
     </row>
     <row r="386">
@@ -19442,7 +19442,7 @@
         <v>952.5</v>
       </c>
       <c r="J388" t="n">
-        <v>0.2024796363099326</v>
+        <v>0.2024796363099327</v>
       </c>
       <c r="K388" t="n">
         <v>0.6568669547046578</v>
@@ -19589,7 +19589,7 @@
         <v>612.5</v>
       </c>
       <c r="J391" t="n">
-        <v>0.04980433394546799</v>
+        <v>0.049804333945468</v>
       </c>
       <c r="K391" t="n">
         <v>0.3497132714071279</v>
@@ -19785,7 +19785,7 @@
         <v>845.5</v>
       </c>
       <c r="J395" t="n">
-        <v>0.2367698637287193</v>
+        <v>0.2367698637287194</v>
       </c>
       <c r="K395" t="n">
         <v>0.6884059433255644</v>
@@ -19834,10 +19834,10 @@
         <v>788</v>
       </c>
       <c r="J396" t="n">
-        <v>0.09284815413955777</v>
+        <v>0.09284815413955776</v>
       </c>
       <c r="K396" t="n">
-        <v>0.4947140110307719</v>
+        <v>0.4947140110307718</v>
       </c>
     </row>
     <row r="397">
@@ -20082,7 +20082,7 @@
         <v>0.01522802542735732</v>
       </c>
       <c r="K401" t="n">
-        <v>0.211709715351586</v>
+        <v>0.2117097153515859</v>
       </c>
     </row>
     <row r="402">
@@ -20128,7 +20128,7 @@
         <v>726.5</v>
       </c>
       <c r="J402" t="n">
-        <v>0.0279287479086511</v>
+        <v>0.02792874790865111</v>
       </c>
       <c r="K402" t="n">
         <v>0.2844898929126323</v>
@@ -20327,7 +20327,7 @@
         <v>0.3493756821700778</v>
       </c>
       <c r="K406" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="407">
@@ -20373,10 +20373,10 @@
         <v>875.5</v>
       </c>
       <c r="J407" t="n">
-        <v>0.3409887532055952</v>
+        <v>0.3409887532055951</v>
       </c>
       <c r="K407" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="408">
@@ -20474,7 +20474,7 @@
         <v>0.1667484057397502</v>
       </c>
       <c r="K409" t="n">
-        <v>0.6402761086638168</v>
+        <v>0.6402761086638172</v>
       </c>
     </row>
     <row r="410">
@@ -20520,7 +20520,7 @@
         <v>1602</v>
       </c>
       <c r="J410" t="n">
-        <v>0.008216808011897329</v>
+        <v>0.008216808011897328</v>
       </c>
       <c r="K410" t="n">
         <v>0.1580974726733579</v>
@@ -20569,10 +20569,10 @@
         <v>1518</v>
       </c>
       <c r="J411" t="n">
-        <v>0.03658296103630732</v>
+        <v>0.03658296103630734</v>
       </c>
       <c r="K411" t="n">
-        <v>0.3280478058014616</v>
+        <v>0.3280478058014617</v>
       </c>
     </row>
     <row r="412">
@@ -20716,10 +20716,10 @@
         <v>1622.5</v>
       </c>
       <c r="J414" t="n">
-        <v>0.00532641070916683</v>
+        <v>0.005326410709166829</v>
       </c>
       <c r="K414" t="n">
-        <v>0.1177476750388157</v>
+        <v>0.1177476750388156</v>
       </c>
     </row>
     <row r="415">
@@ -20817,7 +20817,7 @@
         <v>0.0003907831254861373</v>
       </c>
       <c r="K416" t="n">
-        <v>0.02374108280514059</v>
+        <v>0.0237410828051406</v>
       </c>
     </row>
     <row r="417">
@@ -20915,7 +20915,7 @@
         <v>0.3392282913105801</v>
       </c>
       <c r="K418" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="419">
@@ -20961,7 +20961,7 @@
         <v>1612</v>
       </c>
       <c r="J419" t="n">
-        <v>0.006666852275388937</v>
+        <v>0.006666852275388938</v>
       </c>
       <c r="K419" t="n">
         <v>0.1332088368101751</v>
@@ -21010,7 +21010,7 @@
         <v>1419</v>
       </c>
       <c r="J420" t="n">
-        <v>0.1732697301639893</v>
+        <v>0.1732697301639892</v>
       </c>
       <c r="K420" t="n">
         <v>0.6411247399776439</v>
@@ -21307,7 +21307,7 @@
         <v>0.02145048415665727</v>
       </c>
       <c r="K426" t="n">
-        <v>0.2533487786977331</v>
+        <v>0.2533487786977332</v>
       </c>
     </row>
     <row r="427">
@@ -21549,10 +21549,10 @@
         <v>1697</v>
       </c>
       <c r="J431" t="n">
-        <v>0.0009391056991171885</v>
+        <v>0.0009391056991171883</v>
       </c>
       <c r="K431" t="n">
-        <v>0.04662119424668051</v>
+        <v>0.04662119424668053</v>
       </c>
     </row>
     <row r="432">
@@ -21601,7 +21601,7 @@
         <v>0.002460920089077773</v>
       </c>
       <c r="K432" t="n">
-        <v>0.06910529655545423</v>
+        <v>0.06910529655545421</v>
       </c>
     </row>
     <row r="433">
@@ -21650,7 +21650,7 @@
         <v>0.00114535360120019</v>
       </c>
       <c r="K433" t="n">
-        <v>0.04707970575728141</v>
+        <v>0.04707970575728139</v>
       </c>
     </row>
     <row r="434">
@@ -21696,7 +21696,7 @@
         <v>1475.5</v>
       </c>
       <c r="J434" t="n">
-        <v>0.0788542111555277</v>
+        <v>0.07885421115552767</v>
       </c>
       <c r="K434" t="n">
         <v>0.4526415962564109</v>
@@ -22140,7 +22140,7 @@
         <v>0.001359375527159232</v>
       </c>
       <c r="K443" t="n">
-        <v>0.04707970575728141</v>
+        <v>0.04707970575728139</v>
       </c>
     </row>
     <row r="444">
@@ -22480,10 +22480,10 @@
         <v>925</v>
       </c>
       <c r="J450" t="n">
-        <v>0.03662516407408041</v>
+        <v>0.03662516407408042</v>
       </c>
       <c r="K450" t="n">
-        <v>0.3280478058014616</v>
+        <v>0.3280478058014617</v>
       </c>
     </row>
     <row r="451">
@@ -22532,7 +22532,7 @@
         <v>0.6415067628469198</v>
       </c>
       <c r="K451" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="452">
@@ -22725,10 +22725,10 @@
         <v>753</v>
       </c>
       <c r="J455" t="n">
-        <v>0.0009871667694196066</v>
+        <v>0.0009871667694196071</v>
       </c>
       <c r="K455" t="n">
-        <v>0.04662119424668051</v>
+        <v>0.04662119424668053</v>
       </c>
     </row>
     <row r="456">
@@ -22774,7 +22774,7 @@
         <v>909</v>
       </c>
       <c r="J456" t="n">
-        <v>0.02766951647326622</v>
+        <v>0.02766951647326623</v>
       </c>
       <c r="K456" t="n">
         <v>0.2844898929126323</v>
@@ -23022,7 +23022,7 @@
         <v>0.0001875309395658934</v>
       </c>
       <c r="K461" t="n">
-        <v>0.01771314965536029</v>
+        <v>0.0177131496553603</v>
       </c>
     </row>
     <row r="462">
@@ -23068,10 +23068,10 @@
         <v>1859</v>
       </c>
       <c r="J462" t="n">
-        <v>8.896571075197689e-06</v>
+        <v>8.896571075197691e-06</v>
       </c>
       <c r="K462" t="n">
-        <v>0.004621768673565199</v>
+        <v>0.0046217686735652</v>
       </c>
     </row>
     <row r="463">
@@ -23264,10 +23264,10 @@
         <v>712.5</v>
       </c>
       <c r="J466" t="n">
-        <v>0.0003459068147777652</v>
+        <v>0.0003459068147777653</v>
       </c>
       <c r="K466" t="n">
-        <v>0.02374108280514059</v>
+        <v>0.0237410828051406</v>
       </c>
     </row>
     <row r="467">
@@ -23365,7 +23365,7 @@
         <v>5.337860626481584e-06</v>
       </c>
       <c r="K468" t="n">
-        <v>0.004621768673565199</v>
+        <v>0.0046217686735652</v>
       </c>
     </row>
     <row r="469">
@@ -23806,7 +23806,7 @@
         <v>0.04221646567581641</v>
       </c>
       <c r="K477" t="n">
-        <v>0.3319591573681298</v>
+        <v>0.3319591573681299</v>
       </c>
     </row>
     <row r="478">
@@ -24146,10 +24146,10 @@
         <v>1669</v>
       </c>
       <c r="J484" t="n">
-        <v>0.00185747413291564</v>
+        <v>0.001857474132915639</v>
       </c>
       <c r="K484" t="n">
-        <v>0.05812323181677711</v>
+        <v>0.05812323181677713</v>
       </c>
     </row>
     <row r="485">
@@ -24195,10 +24195,10 @@
         <v>1803</v>
       </c>
       <c r="J485" t="n">
-        <v>5.11497951466855e-05</v>
+        <v>5.114979514668548e-05</v>
       </c>
       <c r="K485" t="n">
-        <v>0.01062892743148125</v>
+        <v>0.01062892743148124</v>
       </c>
     </row>
     <row r="486">
@@ -24391,10 +24391,10 @@
         <v>945</v>
       </c>
       <c r="J489" t="n">
-        <v>0.05118922925709553</v>
+        <v>0.05118922925709554</v>
       </c>
       <c r="K489" t="n">
-        <v>0.3522225774710083</v>
+        <v>0.3522225774710084</v>
       </c>
     </row>
     <row r="490">
@@ -24538,10 +24538,10 @@
         <v>1507</v>
       </c>
       <c r="J492" t="n">
-        <v>0.04793082221050798</v>
+        <v>0.04793082221050797</v>
       </c>
       <c r="K492" t="n">
-        <v>0.349218480601122</v>
+        <v>0.3492184806011221</v>
       </c>
     </row>
     <row r="493">
@@ -24587,10 +24587,10 @@
         <v>1362.5</v>
       </c>
       <c r="J493" t="n">
-        <v>0.3331539572102833</v>
+        <v>0.3331539572102832</v>
       </c>
       <c r="K493" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="494">
@@ -24685,10 +24685,10 @@
         <v>1516</v>
       </c>
       <c r="J495" t="n">
-        <v>0.04121227514298824</v>
+        <v>0.04121227514298825</v>
       </c>
       <c r="K495" t="n">
-        <v>0.3319591573681298</v>
+        <v>0.3319591573681299</v>
       </c>
     </row>
     <row r="496">
@@ -24783,10 +24783,10 @@
         <v>803</v>
       </c>
       <c r="J497" t="n">
-        <v>0.003239069688519938</v>
+        <v>0.003239069688519937</v>
       </c>
       <c r="K497" t="n">
-        <v>0.08479506244593597</v>
+        <v>0.084795062445936</v>
       </c>
     </row>
     <row r="498">
@@ -24881,10 +24881,10 @@
         <v>924</v>
       </c>
       <c r="J499" t="n">
-        <v>0.03600070859065226</v>
+        <v>0.03600070859065227</v>
       </c>
       <c r="K499" t="n">
-        <v>0.3280478058014616</v>
+        <v>0.3280478058014617</v>
       </c>
     </row>
     <row r="500">
@@ -24982,7 +24982,7 @@
         <v>0.001203085094632953</v>
       </c>
       <c r="K501" t="n">
-        <v>0.04707970575728141</v>
+        <v>0.04707970575728139</v>
       </c>
     </row>
     <row r="502">
@@ -25077,10 +25077,10 @@
         <v>1500.5</v>
       </c>
       <c r="J503" t="n">
-        <v>0.05330960622887976</v>
+        <v>0.05330960622887977</v>
       </c>
       <c r="K503" t="n">
-        <v>0.3596667589078316</v>
+        <v>0.3596667589078317</v>
       </c>
     </row>
     <row r="504">
@@ -25178,7 +25178,7 @@
         <v>0.2164587700834095</v>
       </c>
       <c r="K505" t="n">
-        <v>0.6686748101232944</v>
+        <v>0.6686748101232951</v>
       </c>
     </row>
     <row r="506">
@@ -25227,7 +25227,7 @@
         <v>0.2191386373813661</v>
       </c>
       <c r="K506" t="n">
-        <v>0.6686748101232944</v>
+        <v>0.6686748101232951</v>
       </c>
     </row>
     <row r="507">
@@ -25371,10 +25371,10 @@
         <v>987</v>
       </c>
       <c r="J509" t="n">
-        <v>0.09775600764383556</v>
+        <v>0.09775600764383552</v>
       </c>
       <c r="K509" t="n">
-        <v>0.5129721815249755</v>
+        <v>0.5129721815249753</v>
       </c>
     </row>
     <row r="510">
@@ -25423,7 +25423,7 @@
         <v>0.03538535396364086</v>
       </c>
       <c r="K510" t="n">
-        <v>0.3280478058014616</v>
+        <v>0.3280478058014617</v>
       </c>
     </row>
     <row r="511">
@@ -25518,10 +25518,10 @@
         <v>1370</v>
       </c>
       <c r="J512" t="n">
-        <v>0.3083436264653908</v>
+        <v>0.3083436264653909</v>
       </c>
       <c r="K512" t="n">
-        <v>0.7450442509245141</v>
+        <v>0.7450442509245144</v>
       </c>
     </row>
     <row r="513">
@@ -25567,7 +25567,7 @@
         <v>1548</v>
       </c>
       <c r="J513" t="n">
-        <v>0.02351556165401288</v>
+        <v>0.02351556165401289</v>
       </c>
       <c r="K513" t="n">
         <v>0.2641511022668969</v>
@@ -25665,10 +25665,10 @@
         <v>1493</v>
       </c>
       <c r="J515" t="n">
-        <v>0.0601249777508018</v>
+        <v>0.06012497775080179</v>
       </c>
       <c r="K515" t="n">
-        <v>0.388011502379398</v>
+        <v>0.3880115023793979</v>
       </c>
     </row>
     <row r="516">
@@ -25913,7 +25913,7 @@
         <v>0.04339334410705118</v>
       </c>
       <c r="K520" t="n">
-        <v>0.3319591573681298</v>
+        <v>0.3319591573681299</v>
       </c>
     </row>
     <row r="521">
@@ -26057,7 +26057,7 @@
         <v>1548</v>
       </c>
       <c r="J523" t="n">
-        <v>0.02351556165401288</v>
+        <v>0.02351556165401289</v>
       </c>
       <c r="K523" t="n">
         <v>0.2641511022668969</v>
@@ -26204,10 +26204,10 @@
         <v>1748</v>
       </c>
       <c r="J526" t="n">
-        <v>0.000247113385582188</v>
+        <v>0.0002471133855821881</v>
       </c>
       <c r="K526" t="n">
-        <v>0.02139590063499111</v>
+        <v>0.02139590063499112</v>
       </c>
     </row>
     <row r="527">
@@ -26256,7 +26256,7 @@
         <v>0.001232948172247803</v>
       </c>
       <c r="K527" t="n">
-        <v>0.04707970575728141</v>
+        <v>0.04707970575728139</v>
       </c>
     </row>
     <row r="528">
@@ -26305,7 +26305,7 @@
         <v>0.0001823810103197413</v>
       </c>
       <c r="K528" t="n">
-        <v>0.01771314965536029</v>
+        <v>0.0177131496553603</v>
       </c>
     </row>
     <row r="529">
@@ -26501,7 +26501,7 @@
         <v>0.04056885579578266</v>
       </c>
       <c r="K532" t="n">
-        <v>0.3319591573681298</v>
+        <v>0.3319591573681299</v>
       </c>
     </row>
     <row r="533">
@@ -26550,7 +26550,7 @@
         <v>0.0014959452787509</v>
       </c>
       <c r="K533" t="n">
-        <v>0.05013829498781242</v>
+        <v>0.05013829498781241</v>
       </c>
     </row>
     <row r="534">
@@ -26596,10 +26596,10 @@
         <v>1010.5</v>
       </c>
       <c r="J534" t="n">
-        <v>0.1350244805633406</v>
+        <v>0.1350244805633405</v>
       </c>
       <c r="K534" t="n">
-        <v>0.586989269059878</v>
+        <v>0.5869892690598779</v>
       </c>
     </row>
     <row r="535">
@@ -26645,7 +26645,7 @@
         <v>1745</v>
       </c>
       <c r="J535" t="n">
-        <v>0.0002681946378750728</v>
+        <v>0.0002681946378750727</v>
       </c>
       <c r="K535" t="n">
         <v>0.0214349406732462</v>
@@ -26841,10 +26841,10 @@
         <v>1506</v>
       </c>
       <c r="J539" t="n">
-        <v>0.04873597659977159</v>
+        <v>0.04873597659977161</v>
       </c>
       <c r="K539" t="n">
-        <v>0.349218480601122</v>
+        <v>0.3492184806011221</v>
       </c>
     </row>
     <row r="540">
@@ -26893,7 +26893,7 @@
         <v>0.1243253500196354</v>
       </c>
       <c r="K540" t="n">
-        <v>0.5567846494413846</v>
+        <v>0.5567846494413845</v>
       </c>
     </row>
     <row r="541">
@@ -26991,7 +26991,7 @@
         <v>0.04326702754019528</v>
       </c>
       <c r="K542" t="n">
-        <v>0.3319591573681298</v>
+        <v>0.3319591573681299</v>
       </c>
     </row>
     <row r="543">
@@ -27040,7 +27040,7 @@
         <v>0.0001034831001565044</v>
       </c>
       <c r="K543" t="n">
-        <v>0.01535984872322972</v>
+        <v>0.01535984872322973</v>
       </c>
     </row>
     <row r="544">
@@ -27236,7 +27236,7 @@
         <v>0.1080935531992157</v>
       </c>
       <c r="K547" t="n">
-        <v>0.5348057227332625</v>
+        <v>0.5348057227332624</v>
       </c>
     </row>
     <row r="548">
@@ -27429,10 +27429,10 @@
         <v>932</v>
       </c>
       <c r="J551" t="n">
-        <v>0.04125995037551188</v>
+        <v>0.0412599503755119</v>
       </c>
       <c r="K551" t="n">
-        <v>0.3319591573681298</v>
+        <v>0.3319591573681299</v>
       </c>
     </row>
     <row r="552">
@@ -27579,7 +27579,7 @@
         <v>0.6289719635133575</v>
       </c>
       <c r="K554" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="555">
@@ -27772,10 +27772,10 @@
         <v>877</v>
       </c>
       <c r="J558" t="n">
-        <v>0.01526689094128724</v>
+        <v>0.01526689094128723</v>
       </c>
       <c r="K558" t="n">
-        <v>0.211709715351586</v>
+        <v>0.2117097153515859</v>
       </c>
     </row>
     <row r="559">
@@ -27821,10 +27821,10 @@
         <v>1514</v>
       </c>
       <c r="J559" t="n">
-        <v>0.04267208596841553</v>
+        <v>0.04267208596841552</v>
       </c>
       <c r="K559" t="n">
-        <v>0.3319591573681298</v>
+        <v>0.3319591573681299</v>
       </c>
     </row>
     <row r="560">
@@ -27968,10 +27968,10 @@
         <v>1469.5</v>
       </c>
       <c r="J562" t="n">
-        <v>0.08627748092493623</v>
+        <v>0.08627748092493626</v>
       </c>
       <c r="K562" t="n">
-        <v>0.474297897783115</v>
+        <v>0.4742978977831152</v>
       </c>
     </row>
     <row r="563">
@@ -28412,7 +28412,7 @@
         <v>0.004142868217500395</v>
       </c>
       <c r="K571" t="n">
-        <v>0.0978281835905207</v>
+        <v>0.09782818359052069</v>
       </c>
     </row>
     <row r="572">
@@ -28850,7 +28850,7 @@
         <v>1409</v>
       </c>
       <c r="J580" t="n">
-        <v>0.1964408337341349</v>
+        <v>0.1964408337341351</v>
       </c>
       <c r="K580" t="n">
         <v>0.6568669547046578</v>
@@ -28997,10 +28997,10 @@
         <v>1623.5</v>
       </c>
       <c r="J583" t="n">
-        <v>0.005202579710949335</v>
+        <v>0.005202579710949333</v>
       </c>
       <c r="K583" t="n">
-        <v>0.1175104417320948</v>
+        <v>0.1175104417320947</v>
       </c>
     </row>
     <row r="584">
@@ -29046,7 +29046,7 @@
         <v>823</v>
       </c>
       <c r="J584" t="n">
-        <v>0.005046337729097192</v>
+        <v>0.005046337729097191</v>
       </c>
       <c r="K584" t="n">
         <v>0.1165143311229329</v>
@@ -29144,7 +29144,7 @@
         <v>1562.5</v>
       </c>
       <c r="J586" t="n">
-        <v>0.01795101304855137</v>
+        <v>0.01795101304855138</v>
       </c>
       <c r="K586" t="n">
         <v>0.2274524702127424</v>
@@ -29389,7 +29389,7 @@
         <v>1421</v>
       </c>
       <c r="J591" t="n">
-        <v>0.1688701670661105</v>
+        <v>0.1688701670661104</v>
       </c>
       <c r="K591" t="n">
         <v>0.6403892451196068</v>
@@ -29441,7 +29441,7 @@
         <v>0.1651385373325777</v>
       </c>
       <c r="K592" t="n">
-        <v>0.6402761086638168</v>
+        <v>0.6402761086638172</v>
       </c>
     </row>
     <row r="593">
@@ -29536,7 +29536,7 @@
         <v>1127</v>
       </c>
       <c r="J594" t="n">
-        <v>0.499272324841541</v>
+        <v>0.4992723248415409</v>
       </c>
       <c r="K594" t="n">
         <v>0.8516414247252739</v>
@@ -29588,7 +29588,7 @@
         <v>0.00114535360120019</v>
       </c>
       <c r="K595" t="n">
-        <v>0.04707970575728141</v>
+        <v>0.04707970575728139</v>
       </c>
     </row>
     <row r="596">
@@ -30127,7 +30127,7 @@
         <v>0.6140754648360189</v>
       </c>
       <c r="K606" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="607">
@@ -30173,10 +30173,10 @@
         <v>1512</v>
       </c>
       <c r="J607" t="n">
-        <v>0.04409082167160915</v>
+        <v>0.04409082167160917</v>
       </c>
       <c r="K607" t="n">
-        <v>0.3319591573681298</v>
+        <v>0.3319591573681299</v>
       </c>
     </row>
     <row r="608">
@@ -30274,7 +30274,7 @@
         <v>0.1376863587935948</v>
       </c>
       <c r="K609" t="n">
-        <v>0.5935938870810996</v>
+        <v>0.5935938870810995</v>
       </c>
     </row>
     <row r="610">
@@ -30372,7 +30372,7 @@
         <v>0.1667333813047783</v>
       </c>
       <c r="K611" t="n">
-        <v>0.6402761086638168</v>
+        <v>0.6402761086638172</v>
       </c>
     </row>
     <row r="612">
@@ -30663,7 +30663,7 @@
         <v>1099</v>
       </c>
       <c r="J617" t="n">
-        <v>0.3833860558692465</v>
+        <v>0.3833860558692466</v>
       </c>
       <c r="K617" t="n">
         <v>0.787030081626686</v>
@@ -30712,7 +30712,7 @@
         <v>1478</v>
       </c>
       <c r="J618" t="n">
-        <v>0.07592183109001409</v>
+        <v>0.07592183109001407</v>
       </c>
       <c r="K618" t="n">
         <v>0.4481976278552536</v>
@@ -30764,7 +30764,7 @@
         <v>0.1080881020003312</v>
       </c>
       <c r="K619" t="n">
-        <v>0.5348057227332625</v>
+        <v>0.5348057227332624</v>
       </c>
     </row>
     <row r="620">
@@ -30911,7 +30911,7 @@
         <v>0.001571571052191892</v>
       </c>
       <c r="K622" t="n">
-        <v>0.05102694760085549</v>
+        <v>0.05102694760085548</v>
       </c>
     </row>
     <row r="623">
@@ -31300,10 +31300,10 @@
         <v>1503</v>
       </c>
       <c r="J630" t="n">
-        <v>0.05118851046982299</v>
+        <v>0.051188510469823</v>
       </c>
       <c r="K630" t="n">
-        <v>0.3522225774710083</v>
+        <v>0.3522225774710084</v>
       </c>
     </row>
     <row r="631">
@@ -31352,7 +31352,7 @@
         <v>0.00334609967303501</v>
       </c>
       <c r="K631" t="n">
-        <v>0.08479506244593597</v>
+        <v>0.084795062445936</v>
       </c>
     </row>
     <row r="632">
@@ -31597,7 +31597,7 @@
         <v>0.342778425179936</v>
       </c>
       <c r="K636" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="637">
@@ -31842,7 +31842,7 @@
         <v>0.003269843364636573</v>
       </c>
       <c r="K641" t="n">
-        <v>0.08479506244593597</v>
+        <v>0.084795062445936</v>
       </c>
     </row>
     <row r="642">
@@ -31891,7 +31891,7 @@
         <v>0.1215926555102832</v>
       </c>
       <c r="K642" t="n">
-        <v>0.5554980858300392</v>
+        <v>0.5554980858300391</v>
       </c>
     </row>
     <row r="643">
@@ -31986,10 +31986,10 @@
         <v>929</v>
       </c>
       <c r="J644" t="n">
-        <v>0.03921607450488355</v>
+        <v>0.03921607450488354</v>
       </c>
       <c r="K644" t="n">
-        <v>0.3319591573681298</v>
+        <v>0.3319591573681299</v>
       </c>
     </row>
     <row r="645">
@@ -32133,10 +32133,10 @@
         <v>1489</v>
       </c>
       <c r="J647" t="n">
-        <v>0.06404443373663397</v>
+        <v>0.06404443373663396</v>
       </c>
       <c r="K647" t="n">
-        <v>0.4082341512414889</v>
+        <v>0.4082341512414888</v>
       </c>
     </row>
     <row r="648">
@@ -32185,7 +32185,7 @@
         <v>0.3316799420193786</v>
       </c>
       <c r="K648" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="649">
@@ -32231,10 +32231,10 @@
         <v>1810</v>
       </c>
       <c r="J649" t="n">
-        <v>4.143658872128099e-05</v>
+        <v>4.1436588721281e-05</v>
       </c>
       <c r="K649" t="n">
-        <v>0.01062892743148125</v>
+        <v>0.01062892743148124</v>
       </c>
     </row>
     <row r="650">
@@ -32378,10 +32378,10 @@
         <v>1496</v>
       </c>
       <c r="J652" t="n">
-        <v>0.05731770425803927</v>
+        <v>0.05731770425803925</v>
       </c>
       <c r="K652" t="n">
-        <v>0.3792368101551036</v>
+        <v>0.3792368101551037</v>
       </c>
     </row>
     <row r="653">
@@ -32479,7 +32479,7 @@
         <v>0.001325686013506504</v>
       </c>
       <c r="K654" t="n">
-        <v>0.04707970575728141</v>
+        <v>0.04707970575728139</v>
       </c>
     </row>
     <row r="655">
@@ -32577,7 +32577,7 @@
         <v>0.0001823810103197413</v>
       </c>
       <c r="K656" t="n">
-        <v>0.01771314965536029</v>
+        <v>0.0177131496553603</v>
       </c>
     </row>
     <row r="657">
@@ -32724,7 +32724,7 @@
         <v>0.01440550569054504</v>
       </c>
       <c r="K659" t="n">
-        <v>0.211709715351586</v>
+        <v>0.2117097153515859</v>
       </c>
     </row>
     <row r="660">
@@ -32917,10 +32917,10 @@
         <v>1668</v>
       </c>
       <c r="J663" t="n">
-        <v>0.001902011435775189</v>
+        <v>0.00190201143577519</v>
       </c>
       <c r="K663" t="n">
-        <v>0.05812323181677711</v>
+        <v>0.05812323181677713</v>
       </c>
     </row>
     <row r="664">
@@ -33018,7 +33018,7 @@
         <v>0.06605427520990938</v>
       </c>
       <c r="K665" t="n">
-        <v>0.4144889591363536</v>
+        <v>0.4144889591363537</v>
       </c>
     </row>
     <row r="666">
@@ -33113,10 +33113,10 @@
         <v>1571</v>
       </c>
       <c r="J667" t="n">
-        <v>0.01526689094128724</v>
+        <v>0.01526689094128723</v>
       </c>
       <c r="K667" t="n">
-        <v>0.211709715351586</v>
+        <v>0.2117097153515859</v>
       </c>
     </row>
     <row r="668">
@@ -33554,10 +33554,10 @@
         <v>1431</v>
       </c>
       <c r="J676" t="n">
-        <v>0.1482363399334557</v>
+        <v>0.1482363399334558</v>
       </c>
       <c r="K676" t="n">
-        <v>0.6055798431277349</v>
+        <v>0.6055798431277348</v>
       </c>
     </row>
     <row r="677">
@@ -33652,7 +33652,7 @@
         <v>1498</v>
       </c>
       <c r="J678" t="n">
-        <v>0.05550742438753376</v>
+        <v>0.05550742438753375</v>
       </c>
       <c r="K678" t="n">
         <v>0.3696936790938947</v>
@@ -33701,10 +33701,10 @@
         <v>1494</v>
       </c>
       <c r="J679" t="n">
-        <v>0.05917681572945999</v>
+        <v>0.05917681572946001</v>
       </c>
       <c r="K679" t="n">
-        <v>0.3842794471431808</v>
+        <v>0.384279447143181</v>
       </c>
     </row>
     <row r="680">
@@ -33802,7 +33802,7 @@
         <v>0.001189168086185648</v>
       </c>
       <c r="K681" t="n">
-        <v>0.04707970575728141</v>
+        <v>0.04707970575728139</v>
       </c>
     </row>
     <row r="682">
@@ -33851,7 +33851,7 @@
         <v>0.04302576387520075</v>
       </c>
       <c r="K682" t="n">
-        <v>0.3319591573681298</v>
+        <v>0.3319591573681299</v>
       </c>
     </row>
     <row r="683">
@@ -33897,7 +33897,7 @@
         <v>1578</v>
       </c>
       <c r="J683" t="n">
-        <v>0.01332237480278452</v>
+        <v>0.01332237480278451</v>
       </c>
       <c r="K683" t="n">
         <v>0.2035798616823196</v>
@@ -33946,10 +33946,10 @@
         <v>1533.5</v>
       </c>
       <c r="J684" t="n">
-        <v>0.03050688441097572</v>
+        <v>0.03050688441097573</v>
       </c>
       <c r="K684" t="n">
-        <v>0.3047755086827286</v>
+        <v>0.3047755086827287</v>
       </c>
     </row>
     <row r="685">
@@ -34096,7 +34096,7 @@
         <v>0.04056823519992504</v>
       </c>
       <c r="K687" t="n">
-        <v>0.3319591573681298</v>
+        <v>0.3319591573681299</v>
       </c>
     </row>
     <row r="688">
@@ -34191,7 +34191,7 @@
         <v>1391.5</v>
       </c>
       <c r="J689" t="n">
-        <v>0.235396455935352</v>
+        <v>0.2353964559353519</v>
       </c>
       <c r="K689" t="n">
         <v>0.6884059433255644</v>
@@ -34240,7 +34240,7 @@
         <v>1613</v>
       </c>
       <c r="J690" t="n">
-        <v>0.006525993621067516</v>
+        <v>0.006525993621067514</v>
       </c>
       <c r="K690" t="n">
         <v>0.132951124946846</v>
@@ -34387,10 +34387,10 @@
         <v>1506</v>
       </c>
       <c r="J693" t="n">
-        <v>0.04873597659977159</v>
+        <v>0.04873597659977161</v>
       </c>
       <c r="K693" t="n">
-        <v>0.349218480601122</v>
+        <v>0.3492184806011221</v>
       </c>
     </row>
     <row r="694">
@@ -34439,7 +34439,7 @@
         <v>0.2191671383534953</v>
       </c>
       <c r="K694" t="n">
-        <v>0.6686748101232944</v>
+        <v>0.6686748101232951</v>
       </c>
     </row>
     <row r="695">
@@ -34537,7 +34537,7 @@
         <v>0.1349669100945833</v>
       </c>
       <c r="K696" t="n">
-        <v>0.586989269059878</v>
+        <v>0.5869892690598779</v>
       </c>
     </row>
     <row r="697">
@@ -35416,7 +35416,7 @@
         <v>994.5</v>
       </c>
       <c r="J714" t="n">
-        <v>0.005474636237118311</v>
+        <v>0.005474636237118312</v>
       </c>
       <c r="K714" t="n">
         <v>0.1185030635492901</v>
@@ -35811,7 +35811,7 @@
         <v>0.3320328208103658</v>
       </c>
       <c r="K722" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="723">
@@ -35955,10 +35955,10 @@
         <v>679.5</v>
       </c>
       <c r="J725" t="n">
-        <v>0.1888985052664183</v>
+        <v>0.1888985052664182</v>
       </c>
       <c r="K725" t="n">
-        <v>0.6520450065508591</v>
+        <v>0.6520450065508587</v>
       </c>
     </row>
     <row r="726">
@@ -36448,7 +36448,7 @@
         <v>0.1204300613713826</v>
       </c>
       <c r="K735" t="n">
-        <v>0.5554980858300392</v>
+        <v>0.5554980858300391</v>
       </c>
     </row>
     <row r="736">
@@ -36494,10 +36494,10 @@
         <v>737</v>
       </c>
       <c r="J736" t="n">
-        <v>0.2606451914406559</v>
+        <v>0.260645191440656</v>
       </c>
       <c r="K736" t="n">
-        <v>0.7091823755894388</v>
+        <v>0.7091823755894384</v>
       </c>
     </row>
     <row r="737">
@@ -36742,7 +36742,7 @@
         <v>0.03615553265215484</v>
       </c>
       <c r="K741" t="n">
-        <v>0.3280478058014616</v>
+        <v>0.3280478058014617</v>
       </c>
     </row>
     <row r="742">
@@ -37033,10 +37033,10 @@
         <v>740</v>
       </c>
       <c r="J747" t="n">
-        <v>0.2724041947026639</v>
+        <v>0.272404194702664</v>
       </c>
       <c r="K747" t="n">
-        <v>0.7220100976940503</v>
+        <v>0.7220100976940507</v>
       </c>
     </row>
     <row r="748">
@@ -37232,7 +37232,7 @@
         <v>0.1486264292565663</v>
       </c>
       <c r="K751" t="n">
-        <v>0.6055798431277349</v>
+        <v>0.6055798431277348</v>
       </c>
     </row>
     <row r="752">
@@ -37330,7 +37330,7 @@
         <v>0.3384777183448433</v>
       </c>
       <c r="K753" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="754">
@@ -37572,10 +37572,10 @@
         <v>699</v>
       </c>
       <c r="J758" t="n">
-        <v>0.2586696730861147</v>
+        <v>0.2586696730861148</v>
       </c>
       <c r="K758" t="n">
-        <v>0.7091823755894388</v>
+        <v>0.7091823755894384</v>
       </c>
     </row>
     <row r="759">
@@ -37673,7 +37673,7 @@
         <v>0.580298342512602</v>
       </c>
       <c r="K760" t="n">
-        <v>0.8669768776427637</v>
+        <v>0.8669768776427638</v>
       </c>
     </row>
     <row r="761">
@@ -37719,7 +37719,7 @@
         <v>798.5</v>
       </c>
       <c r="J761" t="n">
-        <v>0.2413180494132057</v>
+        <v>0.2413180494132056</v>
       </c>
       <c r="K761" t="n">
         <v>0.6884059433255644</v>
@@ -37866,10 +37866,10 @@
         <v>985</v>
       </c>
       <c r="J764" t="n">
-        <v>0.2606451914406559</v>
+        <v>0.260645191440656</v>
       </c>
       <c r="K764" t="n">
-        <v>0.7091823755894388</v>
+        <v>0.7091823755894384</v>
       </c>
     </row>
     <row r="765">
@@ -37918,7 +37918,7 @@
         <v>0.2143868054647843</v>
       </c>
       <c r="K765" t="n">
-        <v>0.6686748101232944</v>
+        <v>0.6686748101232951</v>
       </c>
     </row>
     <row r="766">
@@ -37967,7 +37967,7 @@
         <v>0.6056417028184962</v>
       </c>
       <c r="K766" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="767">
@@ -38013,7 +38013,7 @@
         <v>978</v>
       </c>
       <c r="J767" t="n">
-        <v>0.2841196916691383</v>
+        <v>0.2841196916691384</v>
       </c>
       <c r="K767" t="n">
         <v>0.7292139503513539</v>
@@ -38065,7 +38065,7 @@
         <v>0.3445452357273356</v>
       </c>
       <c r="K768" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="769">
@@ -38653,7 +38653,7 @@
         <v>0.6163967076257164</v>
       </c>
       <c r="K780" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="781">
@@ -38996,7 +38996,7 @@
         <v>0.3445452357273356</v>
       </c>
       <c r="K787" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="788">
@@ -39045,7 +39045,7 @@
         <v>0.07011369449518028</v>
       </c>
       <c r="K788" t="n">
-        <v>0.4235601293897328</v>
+        <v>0.4235601293897326</v>
       </c>
     </row>
     <row r="789">
@@ -39094,7 +39094,7 @@
         <v>0.2173860891190778</v>
       </c>
       <c r="K789" t="n">
-        <v>0.6686748101232944</v>
+        <v>0.6686748101232951</v>
       </c>
     </row>
     <row r="790">
@@ -39336,7 +39336,7 @@
         <v>618.5</v>
       </c>
       <c r="J794" t="n">
-        <v>0.02750909291167465</v>
+        <v>0.02750909291167466</v>
       </c>
       <c r="K794" t="n">
         <v>0.2844898929126323</v>
@@ -39630,10 +39630,10 @@
         <v>1061</v>
       </c>
       <c r="J800" t="n">
-        <v>0.06662142076590091</v>
+        <v>0.06662142076590093</v>
       </c>
       <c r="K800" t="n">
-        <v>0.4144889591363536</v>
+        <v>0.4144889591363537</v>
       </c>
     </row>
     <row r="801">
@@ -40074,7 +40074,7 @@
         <v>0.03122713336973042</v>
       </c>
       <c r="K809" t="n">
-        <v>0.3072680113739145</v>
+        <v>0.3072680113739146</v>
       </c>
     </row>
     <row r="810">
@@ -40662,7 +40662,7 @@
         <v>0.6161324053814452</v>
       </c>
       <c r="K821" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="822">
@@ -40708,10 +40708,10 @@
         <v>963</v>
       </c>
       <c r="J822" t="n">
-        <v>0.3507170321511293</v>
+        <v>0.3507170321511294</v>
       </c>
       <c r="K822" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="823">
@@ -41005,7 +41005,7 @@
         <v>0.16494623946927</v>
       </c>
       <c r="K828" t="n">
-        <v>0.6402761086638168</v>
+        <v>0.6402761086638172</v>
       </c>
     </row>
     <row r="829">
@@ -41054,7 +41054,7 @@
         <v>0.6324952885348727</v>
       </c>
       <c r="K829" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="830">
@@ -41103,7 +41103,7 @@
         <v>0.1388495505988018</v>
       </c>
       <c r="K830" t="n">
-        <v>0.5936818233422018</v>
+        <v>0.593681823342202</v>
       </c>
     </row>
     <row r="831">
@@ -41198,10 +41198,10 @@
         <v>659</v>
       </c>
       <c r="J832" t="n">
-        <v>0.06645975397354024</v>
+        <v>0.06645975397354027</v>
       </c>
       <c r="K832" t="n">
-        <v>0.4144889591363536</v>
+        <v>0.4144889591363537</v>
       </c>
     </row>
     <row r="833">
@@ -41688,7 +41688,7 @@
         <v>947.5</v>
       </c>
       <c r="J842" t="n">
-        <v>0.2263204220732308</v>
+        <v>0.226320422073231</v>
       </c>
       <c r="K842" t="n">
         <v>0.683864180444533</v>
@@ -41786,10 +41786,10 @@
         <v>924</v>
       </c>
       <c r="J844" t="n">
-        <v>0.07832765520413565</v>
+        <v>0.07832765520413568</v>
       </c>
       <c r="K844" t="n">
-        <v>0.4523541210291679</v>
+        <v>0.452354121029168</v>
       </c>
     </row>
     <row r="845">
@@ -41838,7 +41838,7 @@
         <v>0.1553392829599467</v>
       </c>
       <c r="K845" t="n">
-        <v>0.6231564285536085</v>
+        <v>0.6231564285536086</v>
       </c>
     </row>
     <row r="846">
@@ -41933,7 +41933,7 @@
         <v>763</v>
       </c>
       <c r="J847" t="n">
-        <v>0.3745120927121094</v>
+        <v>0.3745120927121095</v>
       </c>
       <c r="K847" t="n">
         <v>0.7767661024064808</v>
@@ -42034,7 +42034,7 @@
         <v>0.6316385261045044</v>
       </c>
       <c r="K849" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="850">
@@ -42230,7 +42230,7 @@
         <v>0.6398629129765816</v>
       </c>
       <c r="K853" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="854">
@@ -42328,7 +42328,7 @@
         <v>0.2191481747356019</v>
       </c>
       <c r="K855" t="n">
-        <v>0.6686748101232944</v>
+        <v>0.6686748101232951</v>
       </c>
     </row>
     <row r="856">
@@ -42521,7 +42521,7 @@
         <v>720.5</v>
       </c>
       <c r="J859" t="n">
-        <v>0.2022431025263451</v>
+        <v>0.2022431025263453</v>
       </c>
       <c r="K859" t="n">
         <v>0.6568669547046578</v>
@@ -42570,10 +42570,10 @@
         <v>800</v>
       </c>
       <c r="J860" t="n">
-        <v>0.58160046556016</v>
+        <v>0.5816004655601601</v>
       </c>
       <c r="K860" t="n">
-        <v>0.8669768776427637</v>
+        <v>0.8669768776427638</v>
       </c>
     </row>
     <row r="861">
@@ -42671,7 +42671,7 @@
         <v>0.6249915068738403</v>
       </c>
       <c r="K862" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="863">
@@ -43158,10 +43158,10 @@
         <v>924</v>
       </c>
       <c r="J872" t="n">
-        <v>0.07832765520413565</v>
+        <v>0.07832765520413568</v>
       </c>
       <c r="K872" t="n">
-        <v>0.4523541210291679</v>
+        <v>0.452354121029168</v>
       </c>
     </row>
     <row r="873">
@@ -43210,7 +43210,7 @@
         <v>0.6131970188269968</v>
       </c>
       <c r="K873" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="874">
@@ -43305,10 +43305,10 @@
         <v>673</v>
       </c>
       <c r="J875" t="n">
-        <v>0.08767443039686125</v>
+        <v>0.08767443039686126</v>
       </c>
       <c r="K875" t="n">
-        <v>0.4794407009596781</v>
+        <v>0.4794407009596782</v>
       </c>
     </row>
     <row r="876">
@@ -43501,7 +43501,7 @@
         <v>394</v>
       </c>
       <c r="J879" t="n">
-        <v>0.2982972432358753</v>
+        <v>0.2982972432358751</v>
       </c>
       <c r="K879" t="n">
         <v>0.733135103067265</v>
@@ -43942,7 +43942,7 @@
         <v>780</v>
       </c>
       <c r="J888" t="n">
-        <v>0.1758382108953407</v>
+        <v>0.1758382108953408</v>
       </c>
       <c r="K888" t="n">
         <v>0.6411247399776439</v>
@@ -44726,7 +44726,7 @@
         <v>794</v>
       </c>
       <c r="J904" t="n">
-        <v>0.5447153937727577</v>
+        <v>0.5447153937727578</v>
       </c>
       <c r="K904" t="n">
         <v>0.8606607971663043</v>
@@ -44922,10 +44922,10 @@
         <v>971</v>
       </c>
       <c r="J908" t="n">
-        <v>0.3180342850307923</v>
+        <v>0.3180342850307925</v>
       </c>
       <c r="K908" t="n">
-        <v>0.7561501650960943</v>
+        <v>0.7561501650960946</v>
       </c>
     </row>
     <row r="909">
@@ -44974,7 +44974,7 @@
         <v>0.6364886093612487</v>
       </c>
       <c r="K909" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="910">
@@ -45023,7 +45023,7 @@
         <v>0.6195759356027919</v>
       </c>
       <c r="K910" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="911">
@@ -45072,7 +45072,7 @@
         <v>0.3409185992609958</v>
       </c>
       <c r="K911" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="912">
@@ -45265,7 +45265,7 @@
         <v>780</v>
       </c>
       <c r="J915" t="n">
-        <v>0.1758382108953407</v>
+        <v>0.1758382108953408</v>
       </c>
       <c r="K915" t="n">
         <v>0.6411247399776439</v>
@@ -45510,10 +45510,10 @@
         <v>1013</v>
       </c>
       <c r="J920" t="n">
-        <v>0.1676179995732032</v>
+        <v>0.1676179995732033</v>
       </c>
       <c r="K920" t="n">
-        <v>0.6402761086638168</v>
+        <v>0.6402761086638172</v>
       </c>
     </row>
     <row r="921">
@@ -45709,7 +45709,7 @@
         <v>0.02145783688681474</v>
       </c>
       <c r="K924" t="n">
-        <v>0.2533487786977331</v>
+        <v>0.2533487786977332</v>
       </c>
     </row>
     <row r="925">
@@ -45807,7 +45807,7 @@
         <v>0.349616007198059</v>
       </c>
       <c r="K926" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="927">
@@ -45853,10 +45853,10 @@
         <v>1085</v>
       </c>
       <c r="J927" t="n">
-        <v>0.04090768574366987</v>
+        <v>0.04090768574366986</v>
       </c>
       <c r="K927" t="n">
-        <v>0.3319591573681298</v>
+        <v>0.3319591573681299</v>
       </c>
     </row>
     <row r="928">
@@ -46196,10 +46196,10 @@
         <v>927.5</v>
       </c>
       <c r="J934" t="n">
-        <v>0.3073218546137994</v>
+        <v>0.3073218546137995</v>
       </c>
       <c r="K934" t="n">
-        <v>0.7450442509245141</v>
+        <v>0.7450442509245144</v>
       </c>
     </row>
     <row r="935">
@@ -46294,10 +46294,10 @@
         <v>912.5</v>
       </c>
       <c r="J936" t="n">
-        <v>0.6422628847963959</v>
+        <v>0.642262884796396</v>
       </c>
       <c r="K936" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="937">
@@ -46738,7 +46738,7 @@
         <v>0.3490264847287141</v>
       </c>
       <c r="K945" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="946">
@@ -46836,7 +46836,7 @@
         <v>0.6157303152535165</v>
       </c>
       <c r="K947" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="948">
@@ -46885,7 +46885,7 @@
         <v>0.6336091640269375</v>
       </c>
       <c r="K948" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="949">
@@ -47326,7 +47326,7 @@
         <v>0.6285809946755152</v>
       </c>
       <c r="K957" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="958">
@@ -47914,7 +47914,7 @@
         <v>0.1338930095910556</v>
       </c>
       <c r="K969" t="n">
-        <v>0.5869824344519274</v>
+        <v>0.5869824344519273</v>
       </c>
     </row>
     <row r="970">
@@ -48061,7 +48061,7 @@
         <v>0.3454772337171532</v>
       </c>
       <c r="K972" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="973">
@@ -48257,7 +48257,7 @@
         <v>0.6323701938548794</v>
       </c>
       <c r="K976" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="977">
@@ -48499,7 +48499,7 @@
         <v>714</v>
       </c>
       <c r="J981" t="n">
-        <v>0.1809635359679679</v>
+        <v>0.180963535967968</v>
       </c>
       <c r="K981" t="n">
         <v>0.6516514833942693</v>
@@ -48845,7 +48845,7 @@
         <v>0.6330604502703168</v>
       </c>
       <c r="K988" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="989">
@@ -49188,7 +49188,7 @@
         <v>0.2585589333213482</v>
       </c>
       <c r="K995" t="n">
-        <v>0.7091823755894388</v>
+        <v>0.7091823755894384</v>
       </c>
     </row>
     <row r="996">
@@ -49237,7 +49237,7 @@
         <v>0.3387889567038791</v>
       </c>
       <c r="K996" t="n">
-        <v>0.7720232974682697</v>
+        <v>0.7720232974682699</v>
       </c>
     </row>
     <row r="997">
@@ -49332,10 +49332,10 @@
         <v>732</v>
       </c>
       <c r="J998" t="n">
-        <v>0.1641280648416789</v>
+        <v>0.1641280648416787</v>
       </c>
       <c r="K998" t="n">
-        <v>0.6402761086638168</v>
+        <v>0.6402761086638172</v>
       </c>
     </row>
     <row r="999">
@@ -49972,7 +49972,7 @@
         <v>0.6285259814278334</v>
       </c>
       <c r="K1011" t="n">
-        <v>0.8700275584138923</v>
+        <v>0.8700275584138925</v>
       </c>
     </row>
     <row r="1012">
